--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -7,13 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from JP Core JFAGY (A" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from JFAGY Food Aller" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from JFAGY Non Food N" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from JFAGY Medication" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +44,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core AllergyIntolerance Codes</t>
+    <t>JP Core AllergyIntolerance ValueSet</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T10:54:34+00:00</t>
+    <t>2022-08-03T00:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +83,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>J-FAGYアレルゲンコード</t>
+    <t>アレルギー・不耐症に関連するアレルゲンコード</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -108,7 +110,13 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/jfagy</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_JfagyFoodAllergenCodes_CS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_JfagyNonFoodNonMedicationAllergenCodes_CS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_JfagyMedicationAllergenCodes_CS</t>
   </si>
 </sst>
 </file>
@@ -414,4 +422,90 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -44,7 +44,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core AllergyIntolerance ValueSet</t>
+    <t>JP Core AllergyIntolerance Codes</t>
   </si>
   <si>
     <t>Status</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T00:30:07+00:00</t>
+    <t>2022-08-03T13:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T13:55:30+00:00</t>
+    <t>2022-08-06T07:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T07:57:57+00:00</t>
+    <t>2022-08-06T08:15:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T08:15:13+00:00</t>
+    <t>2022-08-08T12:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:51:35+00:00</t>
+    <t>2022-08-15T09:08:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T09:08:26+00:00</t>
+    <t>2022-08-17T12:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
